--- a/doc/Manual/Batchmode/LandFile.xlsx
+++ b/doc/Manual/Batchmode/LandFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter_v2_0\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371A07A-BEC2-4C0D-B6AA-F97E3D073213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description - imported" sheetId="3" r:id="rId1"/>
@@ -21,12 +22,20 @@
     <sheet name="Description - artificial" sheetId="6" r:id="rId7"/>
     <sheet name="Artificial" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>Fractal</t>
   </si>
@@ -218,12 +227,36 @@
   </si>
   <si>
     <t>Must exceed previous change year</t>
+  </si>
+  <si>
+    <t>CostMapFile</t>
+  </si>
+  <si>
+    <t>Name of the cost map file (*.txt).</t>
+  </si>
+  <si>
+    <t>If Transfer is 1 (SMS) then optional if LandType is 0 or mandatory if LandType is 2; in all other circumstances must be NULL</t>
+  </si>
+  <si>
+    <t>costs001.txt</t>
+  </si>
+  <si>
+    <t>costs002.txt</t>
+  </si>
+  <si>
+    <t>CostChangeFile</t>
+  </si>
+  <si>
+    <t>Name  of the cost map (*.txt)</t>
+  </si>
+  <si>
+    <t>Required if CostMapFile in LandFile is not NULL, otherwise NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,7 +846,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -840,6 +873,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -847,12 +887,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -880,12 +922,12 @@
     <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Bad 2" xfId="43"/>
+    <cellStyle name="Bad 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Good 2" xfId="42"/>
+    <cellStyle name="Good 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
@@ -893,10 +935,10 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Neutral 2" xfId="44"/>
+    <cellStyle name="Neutral 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Note 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Note 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -991,6 +1033,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1026,6 +1085,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1201,8 +1277,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1216,7 +1292,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1289,31 +1365,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1324,8 +1414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1339,11 +1429,12 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1357,13 +1448,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1377,13 +1471,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1397,13 +1494,16 @@
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1417,13 +1517,16 @@
         <v>35</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1437,13 +1540,16 @@
         <v>36</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1457,9 +1563,12 @@
         <v>36</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1470,8 +1579,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1485,11 +1594,12 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1503,13 +1613,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1522,14 +1635,17 @@
       <c r="D2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
+      <c r="E2" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1542,10 +1658,13 @@
       <c r="D3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1556,8 +1675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1571,11 +1690,12 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1589,13 +1709,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1608,14 +1731,17 @@
       <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1628,14 +1754,17 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>23</v>
       </c>
@@ -1648,14 +1777,17 @@
       <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>24</v>
       </c>
@@ -1669,13 +1801,16 @@
         <v>17</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>25</v>
       </c>
@@ -1689,9 +1824,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1702,8 +1840,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1715,13 +1853,14 @@
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -1735,13 +1874,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>21</v>
       </c>
@@ -1754,14 +1896,17 @@
       <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
+      <c r="E2" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>22</v>
       </c>
@@ -1774,10 +1919,13 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1788,8 +1936,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1803,7 +1951,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1874,6 +2022,20 @@
       </c>
       <c r="D5" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1963,7 +2125,7 @@
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1977,7 +2139,7 @@
       <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -2043,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
